--- a/新增黑名单命中交易统计报表20190906/CBlackHitCount.xlsx
+++ b/新增黑名单命中交易统计报表20190906/CBlackHitCount.xlsx
@@ -26,8 +26,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命中交易数量
-Number of Hits</t>
+    <t>潜在命中交易数量
+Number of Transactions Potential Hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,13 +382,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="38.375" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
